--- a/GoWork/log.xlsx
+++ b/GoWork/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +811,342 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-02 05:01:33</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>47.0%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>73.33333333333333%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.333333333333332%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.3333333333333335%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-02 05:14:46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>37.0%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>85.66666666666667%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.6666666666666667%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12.666666666666668%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:25:22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16.666666666666664%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>73.33333333333333%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.3333333333333335%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>23.333333333333332%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:26:08</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16.666666666666664%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:26:41</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>43.333333333333336%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>90.0%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:33:34</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:34:14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-02 21:34:54</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>33.33333333333333%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96.66666666666667%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3.3333333333333335%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
